--- a/DarkCode/Lịch thực hành.xlsx
+++ b/DarkCode/Lịch thực hành.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Awesome Hover Effect on Buttons Using HTML &amp; CSS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>FirstDay</t>
   </si>
@@ -35,13 +32,22 @@
   <si>
     <t>Một tuần học 2 video: Học vào thứ 2, 5</t>
   </si>
+  <si>
+    <t>Button 1</t>
+  </si>
+  <si>
+    <t>Button 2</t>
+  </si>
+  <si>
+    <t>Search Box 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="d/m"/>
+    <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -107,16 +113,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -418,7 +424,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -430,1180 +436,1188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>7</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>15</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>22</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>28</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>35</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>42</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>50</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>60</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>70</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>80</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>90</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>100</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>120</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="3">
         <v>140</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="3">
         <v>180</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
         <v>44341</v>
       </c>
-      <c r="C5" s="6">
-        <f>$B5+C$4</f>
+      <c r="C5" s="5">
+        <f t="shared" ref="C5:T5" si="0">$B5+C$4</f>
         <v>44342</v>
       </c>
-      <c r="D5" s="6">
-        <f>$B5+D$4</f>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
         <v>44344</v>
       </c>
-      <c r="E5" s="6">
-        <f>$B5+E$4</f>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
         <v>44348</v>
       </c>
-      <c r="F5" s="6">
-        <f>$B5+F$4</f>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
         <v>44356</v>
       </c>
-      <c r="G5" s="6">
-        <f>$B5+G$4</f>
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
         <v>44363</v>
       </c>
-      <c r="H5" s="6">
-        <f>$B5+H$4</f>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
         <v>44369</v>
       </c>
-      <c r="I5" s="6">
-        <f>$B5+I$4</f>
+      <c r="I5" s="5">
+        <f t="shared" si="0"/>
         <v>44376</v>
       </c>
-      <c r="J5" s="6">
-        <f>$B5+J$4</f>
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
         <v>44383</v>
       </c>
-      <c r="K5" s="6">
-        <f>$B5+K$4</f>
+      <c r="K5" s="5">
+        <f t="shared" si="0"/>
         <v>44391</v>
       </c>
-      <c r="L5" s="6">
-        <f>$B5+L$4</f>
+      <c r="L5" s="5">
+        <f t="shared" si="0"/>
         <v>44401</v>
       </c>
-      <c r="M5" s="6">
-        <f>$B5+M$4</f>
+      <c r="M5" s="5">
+        <f t="shared" si="0"/>
         <v>44411</v>
       </c>
-      <c r="N5" s="6">
-        <f>$B5+N$4</f>
+      <c r="N5" s="5">
+        <f t="shared" si="0"/>
         <v>44421</v>
       </c>
-      <c r="O5" s="6">
-        <f>$B5+O$4</f>
+      <c r="O5" s="5">
+        <f t="shared" si="0"/>
         <v>44431</v>
       </c>
-      <c r="P5" s="6">
-        <f>$B5+P$4</f>
+      <c r="P5" s="5">
+        <f t="shared" si="0"/>
         <v>44441</v>
       </c>
-      <c r="Q5" s="6">
-        <f>$B5+Q$4</f>
+      <c r="Q5" s="5">
+        <f t="shared" si="0"/>
         <v>44461</v>
       </c>
-      <c r="R5" s="6">
-        <f>$B5+R$4</f>
+      <c r="R5" s="5">
+        <f t="shared" si="0"/>
         <v>44481</v>
       </c>
-      <c r="S5" s="6">
-        <f>$B5+S$4</f>
+      <c r="S5" s="5">
+        <f t="shared" si="0"/>
         <v>44521</v>
       </c>
-      <c r="T5" s="6">
-        <f>$B5+T$4</f>
+      <c r="T5" s="5">
+        <f t="shared" si="0"/>
         <v>44541</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6">
-        <f t="shared" ref="C6:C18" si="0">$B6+C$4</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <f>$B6+D$4</f>
-        <v>3</v>
-      </c>
-      <c r="E6" s="6">
-        <f>$B6+E$4</f>
-        <v>7</v>
-      </c>
-      <c r="F6" s="6">
-        <f>$B6+F$4</f>
-        <v>15</v>
-      </c>
-      <c r="G6" s="6">
-        <f>$B6+G$4</f>
-        <v>22</v>
-      </c>
-      <c r="H6" s="6">
-        <f>$B6+H$4</f>
-        <v>28</v>
-      </c>
-      <c r="I6" s="6">
-        <f>$B6+I$4</f>
-        <v>35</v>
-      </c>
-      <c r="J6" s="6">
-        <f>$B6+J$4</f>
-        <v>42</v>
-      </c>
-      <c r="K6" s="6">
-        <f>$B6+K$4</f>
-        <v>50</v>
-      </c>
-      <c r="L6" s="6">
-        <f>$B6+L$4</f>
-        <v>60</v>
-      </c>
-      <c r="M6" s="6">
-        <f>$B6+M$4</f>
-        <v>70</v>
-      </c>
-      <c r="N6" s="6">
-        <f>$B6+N$4</f>
-        <v>80</v>
-      </c>
-      <c r="O6" s="6">
-        <f>$B6+O$4</f>
-        <v>90</v>
-      </c>
-      <c r="P6" s="6">
-        <f>$B6+P$4</f>
-        <v>100</v>
-      </c>
-      <c r="Q6" s="6">
-        <f>$B6+Q$4</f>
-        <v>120</v>
-      </c>
-      <c r="R6" s="6">
-        <f>$B6+R$4</f>
-        <v>140</v>
-      </c>
-      <c r="S6" s="6">
-        <f>$B6+S$4</f>
-        <v>180</v>
-      </c>
-      <c r="T6" s="6">
-        <f>$B6+T$4</f>
-        <v>200</v>
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44341</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" ref="C6:C18" si="1">$B6+C$4</f>
+        <v>44342</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" ref="D6:M18" si="2">$B6+D$4</f>
+        <v>44344</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="2"/>
+        <v>44348</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="2"/>
+        <v>44356</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="2"/>
+        <v>44363</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="2"/>
+        <v>44369</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="2"/>
+        <v>44376</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="2"/>
+        <v>44383</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="2"/>
+        <v>44391</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="2"/>
+        <v>44401</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="2"/>
+        <v>44411</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" ref="N6:T18" si="3">$B6+N$4</f>
+        <v>44421</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="3"/>
+        <v>44431</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="3"/>
+        <v>44441</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="3"/>
+        <v>44461</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="3"/>
+        <v>44481</v>
+      </c>
+      <c r="S6" s="5">
+        <f t="shared" si="3"/>
+        <v>44521</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" si="3"/>
+        <v>44541</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <f>$B7+D$4</f>
-        <v>3</v>
-      </c>
-      <c r="E7" s="6">
-        <f>$B7+E$4</f>
-        <v>7</v>
-      </c>
-      <c r="F7" s="6">
-        <f>$B7+F$4</f>
-        <v>15</v>
-      </c>
-      <c r="G7" s="6">
-        <f>$B7+G$4</f>
-        <v>22</v>
-      </c>
-      <c r="H7" s="6">
-        <f>$B7+H$4</f>
-        <v>28</v>
-      </c>
-      <c r="I7" s="6">
-        <f>$B7+I$4</f>
-        <v>35</v>
-      </c>
-      <c r="J7" s="6">
-        <f>$B7+J$4</f>
-        <v>42</v>
-      </c>
-      <c r="K7" s="6">
-        <f>$B7+K$4</f>
-        <v>50</v>
-      </c>
-      <c r="L7" s="6">
-        <f>$B7+L$4</f>
-        <v>60</v>
-      </c>
-      <c r="M7" s="6">
-        <f>$B7+M$4</f>
-        <v>70</v>
-      </c>
-      <c r="N7" s="6">
-        <f>$B7+N$4</f>
-        <v>80</v>
-      </c>
-      <c r="O7" s="6">
-        <f>$B7+O$4</f>
-        <v>90</v>
-      </c>
-      <c r="P7" s="6">
-        <f>$B7+P$4</f>
-        <v>100</v>
-      </c>
-      <c r="Q7" s="6">
-        <f>$B7+Q$4</f>
-        <v>120</v>
-      </c>
-      <c r="R7" s="6">
-        <f>$B7+R$4</f>
-        <v>140</v>
-      </c>
-      <c r="S7" s="6">
-        <f>$B7+S$4</f>
-        <v>180</v>
-      </c>
-      <c r="T7" s="6">
-        <f>$B7+T$4</f>
-        <v>200</v>
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>44342</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="1"/>
+        <v>44343</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="2"/>
+        <v>44345</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="2"/>
+        <v>44349</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="2"/>
+        <v>44357</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="2"/>
+        <v>44364</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="2"/>
+        <v>44370</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="2"/>
+        <v>44377</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="2"/>
+        <v>44384</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="2"/>
+        <v>44392</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="2"/>
+        <v>44402</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="2"/>
+        <v>44412</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="3"/>
+        <v>44422</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="3"/>
+        <v>44432</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="3"/>
+        <v>44442</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="3"/>
+        <v>44462</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="3"/>
+        <v>44482</v>
+      </c>
+      <c r="S7" s="5">
+        <f t="shared" si="3"/>
+        <v>44522</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" si="3"/>
+        <v>44542</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6">
-        <f t="shared" si="0"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D8" s="6">
-        <f>$B8+D$4</f>
+      <c r="D8" s="5">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E8" s="6">
-        <f>$B8+E$4</f>
+      <c r="E8" s="5">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F8" s="6">
-        <f>$B8+F$4</f>
+      <c r="F8" s="5">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G8" s="6">
-        <f>$B8+G$4</f>
+      <c r="G8" s="5">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="H8" s="6">
-        <f>$B8+H$4</f>
+      <c r="H8" s="5">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="I8" s="6">
-        <f>$B8+I$4</f>
+      <c r="I8" s="5">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="J8" s="6">
-        <f>$B8+J$4</f>
+      <c r="J8" s="5">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="K8" s="6">
-        <f>$B8+K$4</f>
+      <c r="K8" s="5">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="L8" s="6">
-        <f>$B8+L$4</f>
+      <c r="L8" s="5">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="M8" s="6">
-        <f>$B8+M$4</f>
+      <c r="M8" s="5">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="N8" s="6">
-        <f>$B8+N$4</f>
+      <c r="N8" s="5">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="O8" s="6">
-        <f>$B8+O$4</f>
+      <c r="O8" s="5">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="P8" s="6">
-        <f>$B8+P$4</f>
+      <c r="P8" s="5">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="Q8" s="6">
-        <f>$B8+Q$4</f>
+      <c r="Q8" s="5">
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="R8" s="6">
-        <f>$B8+R$4</f>
+      <c r="R8" s="5">
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="S8" s="6">
-        <f>$B8+S$4</f>
+      <c r="S8" s="5">
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="T8" s="6">
-        <f>$B8+T$4</f>
+      <c r="T8" s="5">
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6">
-        <f t="shared" si="0"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D9" s="6">
-        <f>$B9+D$4</f>
+      <c r="D9" s="5">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E9" s="6">
-        <f>$B9+E$4</f>
+      <c r="E9" s="5">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F9" s="6">
-        <f>$B9+F$4</f>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G9" s="6">
-        <f>$B9+G$4</f>
+      <c r="G9" s="5">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="H9" s="6">
-        <f>$B9+H$4</f>
+      <c r="H9" s="5">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="I9" s="6">
-        <f>$B9+I$4</f>
+      <c r="I9" s="5">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="J9" s="6">
-        <f>$B9+J$4</f>
+      <c r="J9" s="5">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="K9" s="6">
-        <f>$B9+K$4</f>
+      <c r="K9" s="5">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="L9" s="6">
-        <f>$B9+L$4</f>
+      <c r="L9" s="5">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="M9" s="6">
-        <f>$B9+M$4</f>
+      <c r="M9" s="5">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="N9" s="6">
-        <f>$B9+N$4</f>
+      <c r="N9" s="5">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="O9" s="6">
-        <f>$B9+O$4</f>
+      <c r="O9" s="5">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="P9" s="6">
-        <f>$B9+P$4</f>
+      <c r="P9" s="5">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="Q9" s="6">
-        <f>$B9+Q$4</f>
+      <c r="Q9" s="5">
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="R9" s="6">
-        <f>$B9+R$4</f>
+      <c r="R9" s="5">
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="S9" s="6">
-        <f>$B9+S$4</f>
+      <c r="S9" s="5">
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="T9" s="6">
-        <f>$B9+T$4</f>
+      <c r="T9" s="5">
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6">
-        <f t="shared" si="0"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D10" s="6">
-        <f>$B10+D$4</f>
+      <c r="D10" s="5">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E10" s="6">
-        <f>$B10+E$4</f>
+      <c r="E10" s="5">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F10" s="6">
-        <f>$B10+F$4</f>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G10" s="6">
-        <f>$B10+G$4</f>
+      <c r="G10" s="5">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="H10" s="6">
-        <f>$B10+H$4</f>
+      <c r="H10" s="5">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="I10" s="6">
-        <f>$B10+I$4</f>
+      <c r="I10" s="5">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="J10" s="6">
-        <f>$B10+J$4</f>
+      <c r="J10" s="5">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="K10" s="6">
-        <f>$B10+K$4</f>
+      <c r="K10" s="5">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="L10" s="6">
-        <f>$B10+L$4</f>
+      <c r="L10" s="5">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="M10" s="6">
-        <f>$B10+M$4</f>
+      <c r="M10" s="5">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="N10" s="6">
-        <f>$B10+N$4</f>
+      <c r="N10" s="5">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="O10" s="6">
-        <f>$B10+O$4</f>
+      <c r="O10" s="5">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="P10" s="6">
-        <f>$B10+P$4</f>
+      <c r="P10" s="5">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="Q10" s="6">
-        <f>$B10+Q$4</f>
+      <c r="Q10" s="5">
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="R10" s="6">
-        <f>$B10+R$4</f>
+      <c r="R10" s="5">
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="S10" s="6">
-        <f>$B10+S$4</f>
+      <c r="S10" s="5">
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="T10" s="6">
-        <f>$B10+T$4</f>
+      <c r="T10" s="5">
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6">
-        <f t="shared" si="0"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D11" s="6">
-        <f>$B11+D$4</f>
+      <c r="D11" s="5">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E11" s="6">
-        <f>$B11+E$4</f>
+      <c r="E11" s="5">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F11" s="6">
-        <f>$B11+F$4</f>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G11" s="6">
-        <f>$B11+G$4</f>
+      <c r="G11" s="5">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="H11" s="6">
-        <f>$B11+H$4</f>
+      <c r="H11" s="5">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="I11" s="6">
-        <f>$B11+I$4</f>
+      <c r="I11" s="5">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="J11" s="6">
-        <f>$B11+J$4</f>
+      <c r="J11" s="5">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="K11" s="6">
-        <f>$B11+K$4</f>
+      <c r="K11" s="5">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="L11" s="6">
-        <f>$B11+L$4</f>
+      <c r="L11" s="5">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="M11" s="6">
-        <f>$B11+M$4</f>
+      <c r="M11" s="5">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="N11" s="6">
-        <f>$B11+N$4</f>
+      <c r="N11" s="5">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="O11" s="6">
-        <f>$B11+O$4</f>
+      <c r="O11" s="5">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="P11" s="6">
-        <f>$B11+P$4</f>
+      <c r="P11" s="5">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="Q11" s="6">
-        <f>$B11+Q$4</f>
+      <c r="Q11" s="5">
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="R11" s="6">
-        <f>$B11+R$4</f>
+      <c r="R11" s="5">
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="S11" s="6">
-        <f>$B11+S$4</f>
+      <c r="S11" s="5">
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="T11" s="6">
-        <f>$B11+T$4</f>
+      <c r="T11" s="5">
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6">
-        <f t="shared" si="0"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D12" s="6">
-        <f>$B12+D$4</f>
+      <c r="D12" s="5">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E12" s="6">
-        <f>$B12+E$4</f>
+      <c r="E12" s="5">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F12" s="6">
-        <f>$B12+F$4</f>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G12" s="6">
-        <f>$B12+G$4</f>
+      <c r="G12" s="5">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="H12" s="6">
-        <f>$B12+H$4</f>
+      <c r="H12" s="5">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="I12" s="6">
-        <f>$B12+I$4</f>
+      <c r="I12" s="5">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="J12" s="6">
-        <f>$B12+J$4</f>
+      <c r="J12" s="5">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="K12" s="6">
-        <f>$B12+K$4</f>
+      <c r="K12" s="5">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="L12" s="6">
-        <f>$B12+L$4</f>
+      <c r="L12" s="5">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="M12" s="6">
-        <f>$B12+M$4</f>
+      <c r="M12" s="5">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="N12" s="6">
-        <f>$B12+N$4</f>
+      <c r="N12" s="5">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="O12" s="6">
-        <f>$B12+O$4</f>
+      <c r="O12" s="5">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="P12" s="6">
-        <f>$B12+P$4</f>
+      <c r="P12" s="5">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="Q12" s="6">
-        <f>$B12+Q$4</f>
+      <c r="Q12" s="5">
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="R12" s="6">
-        <f>$B12+R$4</f>
+      <c r="R12" s="5">
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="S12" s="6">
-        <f>$B12+S$4</f>
+      <c r="S12" s="5">
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="T12" s="6">
-        <f>$B12+T$4</f>
+      <c r="T12" s="5">
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6">
-        <f t="shared" si="0"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D13" s="6">
-        <f>$B13+D$4</f>
+      <c r="D13" s="5">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E13" s="6">
-        <f>$B13+E$4</f>
+      <c r="E13" s="5">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F13" s="6">
-        <f>$B13+F$4</f>
+      <c r="F13" s="5">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G13" s="6">
-        <f>$B13+G$4</f>
+      <c r="G13" s="5">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="H13" s="6">
-        <f>$B13+H$4</f>
+      <c r="H13" s="5">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="I13" s="6">
-        <f>$B13+I$4</f>
+      <c r="I13" s="5">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="J13" s="6">
-        <f>$B13+J$4</f>
+      <c r="J13" s="5">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="K13" s="6">
-        <f>$B13+K$4</f>
+      <c r="K13" s="5">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="L13" s="6">
-        <f>$B13+L$4</f>
+      <c r="L13" s="5">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="M13" s="6">
-        <f>$B13+M$4</f>
+      <c r="M13" s="5">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="N13" s="6">
-        <f>$B13+N$4</f>
+      <c r="N13" s="5">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="O13" s="6">
-        <f>$B13+O$4</f>
+      <c r="O13" s="5">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="P13" s="6">
-        <f>$B13+P$4</f>
+      <c r="P13" s="5">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="Q13" s="6">
-        <f>$B13+Q$4</f>
+      <c r="Q13" s="5">
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="R13" s="6">
-        <f>$B13+R$4</f>
+      <c r="R13" s="5">
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="S13" s="6">
-        <f>$B13+S$4</f>
+      <c r="S13" s="5">
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="T13" s="6">
-        <f>$B13+T$4</f>
+      <c r="T13" s="5">
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6">
-        <f t="shared" si="0"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D14" s="6">
-        <f>$B14+D$4</f>
+      <c r="D14" s="5">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E14" s="6">
-        <f>$B14+E$4</f>
+      <c r="E14" s="5">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F14" s="6">
-        <f>$B14+F$4</f>
+      <c r="F14" s="5">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G14" s="6">
-        <f>$B14+G$4</f>
+      <c r="G14" s="5">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="H14" s="6">
-        <f>$B14+H$4</f>
+      <c r="H14" s="5">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="I14" s="6">
-        <f>$B14+I$4</f>
+      <c r="I14" s="5">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="J14" s="6">
-        <f>$B14+J$4</f>
+      <c r="J14" s="5">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="K14" s="6">
-        <f>$B14+K$4</f>
+      <c r="K14" s="5">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="L14" s="6">
-        <f>$B14+L$4</f>
+      <c r="L14" s="5">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="M14" s="6">
-        <f>$B14+M$4</f>
+      <c r="M14" s="5">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="N14" s="6">
-        <f>$B14+N$4</f>
+      <c r="N14" s="5">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="O14" s="6">
-        <f>$B14+O$4</f>
+      <c r="O14" s="5">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="P14" s="6">
-        <f>$B14+P$4</f>
+      <c r="P14" s="5">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="Q14" s="6">
-        <f>$B14+Q$4</f>
+      <c r="Q14" s="5">
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="R14" s="6">
-        <f>$B14+R$4</f>
+      <c r="R14" s="5">
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="S14" s="6">
-        <f>$B14+S$4</f>
+      <c r="S14" s="5">
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="T14" s="6">
-        <f>$B14+T$4</f>
+      <c r="T14" s="5">
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6">
-        <f t="shared" si="0"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D15" s="6">
-        <f>$B15+D$4</f>
+      <c r="D15" s="5">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E15" s="6">
-        <f>$B15+E$4</f>
+      <c r="E15" s="5">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F15" s="6">
-        <f>$B15+F$4</f>
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G15" s="6">
-        <f>$B15+G$4</f>
+      <c r="G15" s="5">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="H15" s="6">
-        <f>$B15+H$4</f>
+      <c r="H15" s="5">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="I15" s="6">
-        <f>$B15+I$4</f>
+      <c r="I15" s="5">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="J15" s="6">
-        <f>$B15+J$4</f>
+      <c r="J15" s="5">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="K15" s="6">
-        <f>$B15+K$4</f>
+      <c r="K15" s="5">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="L15" s="6">
-        <f>$B15+L$4</f>
+      <c r="L15" s="5">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="M15" s="6">
-        <f>$B15+M$4</f>
+      <c r="M15" s="5">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="N15" s="6">
-        <f>$B15+N$4</f>
+      <c r="N15" s="5">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="O15" s="6">
-        <f>$B15+O$4</f>
+      <c r="O15" s="5">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="P15" s="6">
-        <f>$B15+P$4</f>
+      <c r="P15" s="5">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="Q15" s="6">
-        <f>$B15+Q$4</f>
+      <c r="Q15" s="5">
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="R15" s="6">
-        <f>$B15+R$4</f>
+      <c r="R15" s="5">
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="S15" s="6">
-        <f>$B15+S$4</f>
+      <c r="S15" s="5">
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="T15" s="6">
-        <f>$B15+T$4</f>
+      <c r="T15" s="5">
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6">
-        <f t="shared" si="0"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D16" s="6">
-        <f>$B16+D$4</f>
+      <c r="D16" s="5">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E16" s="6">
-        <f>$B16+E$4</f>
+      <c r="E16" s="5">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F16" s="6">
-        <f>$B16+F$4</f>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G16" s="6">
-        <f>$B16+G$4</f>
+      <c r="G16" s="5">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="H16" s="6">
-        <f>$B16+H$4</f>
+      <c r="H16" s="5">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="I16" s="6">
-        <f>$B16+I$4</f>
+      <c r="I16" s="5">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="J16" s="6">
-        <f>$B16+J$4</f>
+      <c r="J16" s="5">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="K16" s="6">
-        <f>$B16+K$4</f>
+      <c r="K16" s="5">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="L16" s="6">
-        <f>$B16+L$4</f>
+      <c r="L16" s="5">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="M16" s="6">
-        <f>$B16+M$4</f>
+      <c r="M16" s="5">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="N16" s="6">
-        <f>$B16+N$4</f>
+      <c r="N16" s="5">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="O16" s="6">
-        <f>$B16+O$4</f>
+      <c r="O16" s="5">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="P16" s="6">
-        <f>$B16+P$4</f>
+      <c r="P16" s="5">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="Q16" s="6">
-        <f>$B16+Q$4</f>
+      <c r="Q16" s="5">
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="R16" s="6">
-        <f>$B16+R$4</f>
+      <c r="R16" s="5">
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="S16" s="6">
-        <f>$B16+S$4</f>
+      <c r="S16" s="5">
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="T16" s="6">
-        <f>$B16+T$4</f>
+      <c r="T16" s="5">
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6">
-        <f t="shared" si="0"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D17" s="6">
-        <f>$B17+D$4</f>
+      <c r="D17" s="5">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E17" s="6">
-        <f>$B17+E$4</f>
+      <c r="E17" s="5">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F17" s="6">
-        <f>$B17+F$4</f>
+      <c r="F17" s="5">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G17" s="6">
-        <f>$B17+G$4</f>
+      <c r="G17" s="5">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="H17" s="6">
-        <f>$B17+H$4</f>
+      <c r="H17" s="5">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="I17" s="6">
-        <f>$B17+I$4</f>
+      <c r="I17" s="5">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="J17" s="6">
-        <f>$B17+J$4</f>
+      <c r="J17" s="5">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="K17" s="6">
-        <f>$B17+K$4</f>
+      <c r="K17" s="5">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="L17" s="6">
-        <f>$B17+L$4</f>
+      <c r="L17" s="5">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="M17" s="6">
-        <f>$B17+M$4</f>
+      <c r="M17" s="5">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="N17" s="6">
-        <f>$B17+N$4</f>
+      <c r="N17" s="5">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="O17" s="6">
-        <f>$B17+O$4</f>
+      <c r="O17" s="5">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="P17" s="6">
-        <f>$B17+P$4</f>
+      <c r="P17" s="5">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="Q17" s="6">
-        <f>$B17+Q$4</f>
+      <c r="Q17" s="5">
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="R17" s="6">
-        <f>$B17+R$4</f>
+      <c r="R17" s="5">
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="S17" s="6">
-        <f>$B17+S$4</f>
+      <c r="S17" s="5">
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="T17" s="6">
-        <f>$B17+T$4</f>
+      <c r="T17" s="5">
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6">
-        <f t="shared" si="0"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D18" s="6">
-        <f>$B18+D$4</f>
+      <c r="D18" s="5">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E18" s="6">
-        <f>$B18+E$4</f>
+      <c r="E18" s="5">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F18" s="6">
-        <f>$B18+F$4</f>
+      <c r="F18" s="5">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G18" s="6">
-        <f>$B18+G$4</f>
+      <c r="G18" s="5">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="H18" s="6">
-        <f>$B18+H$4</f>
+      <c r="H18" s="5">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="I18" s="6">
-        <f>$B18+I$4</f>
+      <c r="I18" s="5">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="J18" s="6">
-        <f>$B18+J$4</f>
+      <c r="J18" s="5">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="K18" s="6">
-        <f>$B18+K$4</f>
+      <c r="K18" s="5">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="L18" s="6">
-        <f>$B18+L$4</f>
+      <c r="L18" s="5">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="M18" s="6">
-        <f>$B18+M$4</f>
+      <c r="M18" s="5">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="N18" s="6">
-        <f>$B18+N$4</f>
+      <c r="N18" s="5">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="O18" s="6">
-        <f>$B18+O$4</f>
+      <c r="O18" s="5">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="P18" s="6">
-        <f>$B18+P$4</f>
+      <c r="P18" s="5">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="Q18" s="6">
-        <f>$B18+Q$4</f>
+      <c r="Q18" s="5">
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="R18" s="6">
-        <f>$B18+R$4</f>
+      <c r="R18" s="5">
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="S18" s="6">
-        <f>$B18+S$4</f>
+      <c r="S18" s="5">
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="T18" s="6">
-        <f>$B18+T$4</f>
+      <c r="T18" s="5">
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>

--- a/DarkCode/Lịch thực hành.xlsx
+++ b/DarkCode/Lịch thực hành.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>FirstDay</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Search Box 1</t>
+  </si>
+  <si>
+    <t>Login Form 1</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -786,79 +789,83 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>44345</v>
+      </c>
       <c r="C8" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>44346</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>44348</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>44352</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>44360</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>44367</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>44373</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>44380</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>44387</v>
       </c>
       <c r="K8" s="5">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>44395</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>44405</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>44415</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>44425</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>44435</v>
       </c>
       <c r="P8" s="5">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>44445</v>
       </c>
       <c r="Q8" s="5">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>44465</v>
       </c>
       <c r="R8" s="5">
         <f t="shared" si="3"/>
-        <v>140</v>
+        <v>44485</v>
       </c>
       <c r="S8" s="5">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>44525</v>
       </c>
       <c r="T8" s="5">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>44545</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
